--- a/src/main/resources/Datas/TestDatas.xlsx
+++ b/src/main/resources/Datas/TestDatas.xlsx
@@ -1,39 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Automation Workspace\VENDO 1.0\src\main\resources\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFE75C8-CBB1-4BF1-B502-3D58D47501D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4D76B8E0-F44F-4DA2-913C-A2BD654263AB}"/>
+    <workbookView windowWidth="20490" windowHeight="7965"/>
   </bookViews>
   <sheets>
-    <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
+    <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="Signup" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="78">
+  <si>
+    <t>Test Scenario</t>
+  </si>
   <si>
     <t xml:space="preserve">Username </t>
   </si>
@@ -41,49 +26,283 @@
     <t>Password</t>
   </si>
   <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>0. Verify_Page_Title</t>
+  </si>
+  <si>
+    <t>Task Management System</t>
+  </si>
+  <si>
+    <t>TestCase Passed</t>
+  </si>
+  <si>
+    <t>1.Verify_WithValidCredentials</t>
+  </si>
+  <si>
     <t>Vendoadmin</t>
   </si>
   <si>
+    <t>Vendo@2022</t>
+  </si>
+  <si>
+    <t>mainhome</t>
+  </si>
+  <si>
+    <t>TestCase passed</t>
+  </si>
+  <si>
+    <t>2. Verify_withCorrectUsername_WrongPassword</t>
+  </si>
+  <si>
+    <t>test123</t>
+  </si>
+  <si>
+    <t>Invalid Password.</t>
+  </si>
+  <si>
+    <t>3.Verify_with_WrongUsername_CorrectPassword</t>
+  </si>
+  <si>
+    <t>Vendoadmin111</t>
+  </si>
+  <si>
     <t>Test@123</t>
   </si>
   <si>
-    <t>test123</t>
-  </si>
-  <si>
-    <t>Vendoadmin111</t>
+    <t>Invalid Username.</t>
+  </si>
+  <si>
+    <t>4.Verify_with_InvalidCredentials</t>
   </si>
   <si>
     <t>Vendo</t>
   </si>
   <si>
-    <t>!@#$%^&amp;*</t>
-  </si>
-  <si>
-    <t>1234@345</t>
-  </si>
-  <si>
-    <t>0987@)(*&amp;</t>
-  </si>
-  <si>
-    <t>Null</t>
+    <t>5.Verify_with_SpecialCharacters</t>
+  </si>
+  <si>
+    <t>_{*&amp;}!&amp;^^@</t>
+  </si>
+  <si>
+    <t>&amp;^{^#%)_$#</t>
+  </si>
+  <si>
+    <t>TestCase Failed</t>
+  </si>
+  <si>
+    <t>6.Verify_with_Numbers</t>
+  </si>
+  <si>
+    <t>-1824635784</t>
+  </si>
+  <si>
+    <t>670790875</t>
+  </si>
+  <si>
+    <t>7.Verify_with_Specialcharacters_and_Numbers</t>
+  </si>
+  <si>
+    <t>642285406#@!{+*@+((</t>
+  </si>
+  <si>
+    <t>4448638@!!}#&amp;}%}(</t>
+  </si>
+  <si>
+    <t>8. Check Page Has Refreshed</t>
+  </si>
+  <si>
+    <t>9. Verify_with Empty Fields</t>
+  </si>
+  <si>
+    <t>Username is required.&amp;Password is required.</t>
+  </si>
+  <si>
+    <t>10. Verify with Blank Username</t>
+  </si>
+  <si>
+    <t>Username is required.</t>
+  </si>
+  <si>
+    <t>11. Verify with Blank Password</t>
+  </si>
+  <si>
+    <t>Password is required.</t>
+  </si>
+  <si>
+    <t>12. Verify _max Length Validation in Username</t>
   </si>
   <si>
     <t>VendoadminVendoadminVendoadminVendoadmin</t>
   </si>
   <si>
-    <t>&amp;&amp;&amp;%%%$$$</t>
+    <t>30</t>
+  </si>
+  <si>
+    <t>13. Verify _max Length Validation in Password</t>
+  </si>
+  <si>
+    <t>14. Verify_ Special Characters is allowed or Not in Password Field</t>
+  </si>
+  <si>
+    <t>$*+$%@}&amp;(_</t>
+  </si>
+  <si>
+    <t>15. Verify_ Valid Username &amp; Special Character in Password</t>
+  </si>
+  <si>
+    <t>}*!!!)&amp;}+}</t>
+  </si>
+  <si>
+    <t>16. Verify_ Special Character in Username &amp;  Valid Password</t>
+  </si>
+  <si>
+    <t>+@@$!{^%+(</t>
+  </si>
+  <si>
+    <t>17. Verify_ Valid Username &amp; Numbers in Password</t>
+  </si>
+  <si>
+    <t>-934567641</t>
+  </si>
+  <si>
+    <t>18. Verify_ Numbers in Username &amp;  Valid Password</t>
+  </si>
+  <si>
+    <t>-1824722857</t>
+  </si>
+  <si>
+    <t>Test Datas</t>
+  </si>
+  <si>
+    <t>TC_001_VerifyRegistrationPageTitle</t>
+  </si>
+  <si>
+    <t>TC_002_Verify_SpecialCharacters are allowed in Agency Name</t>
+  </si>
+  <si>
+    <t>$$)!{^#$_$</t>
+  </si>
+  <si>
+    <t>TC_003_Verify_Numbers are allowed in Agency Name</t>
+  </si>
+  <si>
+    <t>-2117433676</t>
+  </si>
+  <si>
+    <t>TC_004_Verify_Error Message is showing in Agency Name</t>
+  </si>
+  <si>
+    <t>TestingAgency</t>
+  </si>
+  <si>
+    <t>Agency Name is required.</t>
+  </si>
+  <si>
+    <t>TC_005_Verify_Existing Agency name is Allowed or Not</t>
+  </si>
+  <si>
+    <t>TestMayAgency</t>
+  </si>
+  <si>
+    <t>AgencyName already exists</t>
+  </si>
+  <si>
+    <t>{{)+){(_+#</t>
+  </si>
+  <si>
+    <t>{(@!__&amp;})#</t>
+  </si>
+  <si>
+    <t>-203492548</t>
+  </si>
+  <si>
+    <t>104803560</t>
+  </si>
+  <si>
+    <t>-1089871968(#^(_(^{^%</t>
+  </si>
+  <si>
+    <t>611528913{+^!}*}$((</t>
+  </si>
+  <si>
+    <t>$^_*^^^(+)</t>
+  </si>
+  <si>
+    <t>%#&amp;$@*^)#&amp;</t>
+  </si>
+  <si>
+    <t>*+*@_*^!!&amp;</t>
+  </si>
+  <si>
+    <t>683325511</t>
+  </si>
+  <si>
+    <t>601817047</t>
+  </si>
+  <si>
+    <t>{})#_!}*#%</t>
+  </si>
+  <si>
+    <t>479846575</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Docs-Lexend"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -91,16 +310,170 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Docs-Lexend"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,8 +486,200 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -122,33 +687,392 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -197,7 +1121,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -230,26 +1154,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -282,23 +1189,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -440,170 +1330,534 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD984EA7-B53C-4061-B8C7-F15DEFB6224A}">
-  <dimension ref="A1:B18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="49.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="9" width="74.2857142857143" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="10" width="53.2857142857143" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" style="10" width="53.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="10" width="33.7142857142857" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" style="10" width="43.2857142857143" collapsed="true"/>
+    <col min="8" max="16384" style="10" width="9.14285714285714" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="15.75" spans="1:7">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+    </row>
+    <row r="2" ht="15.75" spans="1:5">
+      <c r="A2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" spans="1:7">
+      <c r="A3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4" ht="15.75" spans="1:7">
+      <c r="A4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="17"/>
+    </row>
+    <row r="5" ht="15.75" spans="1:7">
+      <c r="A5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+    </row>
+    <row r="6" ht="15.75" spans="1:7">
+      <c r="A6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="19"/>
+      <c r="G6" s="17"/>
+    </row>
+    <row r="7" ht="15.75" spans="1:7">
+      <c r="A7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20"/>
+    </row>
+    <row r="8" ht="15.75" spans="1:7">
+      <c r="A8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
+    </row>
+    <row r="9" ht="15.75" spans="1:7">
+      <c r="A9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
+    </row>
+    <row r="10" ht="15.75" spans="1:7">
+      <c r="A10" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="18"/>
+    </row>
+    <row r="11" ht="15.75" spans="1:7">
+      <c r="A11" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="18"/>
+    </row>
+    <row r="12" ht="15.75" spans="1:7">
+      <c r="A12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+    </row>
+    <row r="13" ht="15.75" spans="1:7">
+      <c r="A13" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+    </row>
+    <row r="14" ht="15.75" spans="1:7">
+      <c r="A14" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+    </row>
+    <row r="15" ht="15.75" spans="1:7">
+      <c r="A15" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+    </row>
+    <row r="16" ht="15.75" spans="1:7">
+      <c r="A16" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+    </row>
+    <row r="17" ht="15.75" spans="1:7">
+      <c r="A17" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" ht="15.75" spans="1:7">
+      <c r="A18" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+    </row>
+    <row r="19" ht="15.75" spans="1:7">
+      <c r="A19" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+    </row>
+    <row r="20" ht="15.75" spans="1:7">
+      <c r="A20" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" display="Vendo@2022"/>
+    <hyperlink ref="B7" r:id="rId2" display="_{*&amp;}!&amp;^^@"/>
+    <hyperlink ref="C7" r:id="rId2" display="&amp;^{^#%)_$#"/>
+    <hyperlink ref="C16" r:id="rId2" display="$*+$%@}&amp;(_"/>
+    <hyperlink ref="C17" r:id="rId2" display="}*!!!)&amp;}+}"/>
+    <hyperlink ref="B18" r:id="rId2" display="+@@$!{^%+("/>
+    <hyperlink ref="C19" r:id="rId2" display="-934567641"/>
+    <hyperlink ref="B20" r:id="rId2" display="-1824722857"/>
+    <hyperlink ref="C10" r:id="rId1" display="Vendo@2022"/>
+    <hyperlink ref="C12" r:id="rId1" display="Vendo@2022"/>
+    <hyperlink ref="C18" r:id="rId1" display="Vendo@2022"/>
+    <hyperlink ref="C20" r:id="rId1" display="Vendo@2022"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="30.2857142857143" defaultRowHeight="15" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="2" customWidth="true" style="1" width="58.1428571428571" collapsed="true"/>
+    <col min="3" max="16384" style="1" width="30.2857142857143" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="B6" s="3">
-        <v>12345678</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="3" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3" t="s">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="3">
-        <v>98658586</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="3">
-        <v>98658586</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>3</v>
-      </c>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6">
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="5:6">
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="20" spans="6:6">
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="6:6">
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="5:6">
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="5:6">
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="5:6">
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="5:6">
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>